--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>256098.0186790951</v>
+        <v>248198.4017617423</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129928</v>
+        <v>3650026.315129926</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6949005.607343518</v>
+        <v>6892685.7932163</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>57.53714625602347</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>56.43256781341088</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>400.806900043077</v>
@@ -725,7 +727,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,7 +825,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>7.264602967362454</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -832,7 +834,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>103.3456594571958</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -880,7 +882,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>28.60468344882564</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>8.242452000471904</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -956,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170431</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>192.1206041023291</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>272.6707048099148</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
@@ -1303,13 +1305,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>243.4206519573293</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>13.51446909089625</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>248.5746158351368</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>96.77884243873409</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1540,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>260.8759801665428</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1619,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>45.91568880648637</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1661,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1780,10 +1782,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>61.3728147152629</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>137.541784886056</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2078,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>185.5573750678079</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2099,7 +2101,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2482,16 +2484,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>64.90507698037602</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2570,10 +2572,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112159</v>
+        <v>286.2388530112162</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2728,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>114.8528499950178</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2855,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864827</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -2965,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>18.05677735225717</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3047,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3202,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3284,7 +3286,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556917</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3433,7 +3435,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>14.14416275345333</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T40" t="n">
-        <v>122.9742767430576</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791325486</v>
+        <v>0.4126214791316623</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3974,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>185.5573750678079</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
@@ -3995,7 +3997,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4040,7 +4042,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4135,7 +4137,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>10.04027365719915</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512.2184310291448</v>
+        <v>1419.763337936864</v>
       </c>
       <c r="C2" t="n">
-        <v>512.2184310291448</v>
+        <v>981.6208651202878</v>
       </c>
       <c r="D2" t="n">
-        <v>512.2184310291448</v>
+        <v>545.7110802947323</v>
       </c>
       <c r="E2" t="n">
-        <v>512.2184310291448</v>
+        <v>111.9363354530274</v>
       </c>
       <c r="F2" t="n">
-        <v>512.2184310291448</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="G2" t="n">
-        <v>110.8205996524086</v>
+        <v>53.81800590148856</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148856</v>
@@ -4328,52 +4330,52 @@
         <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862857</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862857</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862857</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862857</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362199</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488304</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.119422805321</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739147</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.647018150181</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X2" t="n">
-        <v>920.5045547294914</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y2" t="n">
-        <v>512.2184310291448</v>
+        <v>1846.062908421772</v>
       </c>
     </row>
     <row r="3">
@@ -4404,10 +4406,10 @@
         <v>1006.82106495262</v>
       </c>
       <c r="I3" t="n">
-        <v>1026.750730197022</v>
+        <v>1032.884738113077</v>
       </c>
       <c r="J3" t="n">
-        <v>1351.309055163234</v>
+        <v>1357.443063079289</v>
       </c>
       <c r="K3" t="n">
         <v>2012.149109705013</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1008.286808612828</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>835.7250970960532</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>669.8471042975759</v>
       </c>
       <c r="E4" t="n">
-        <v>395.6995455410447</v>
+        <v>500.0891005483132</v>
       </c>
       <c r="F4" t="n">
-        <v>218.9924915028009</v>
+        <v>323.3820465100694</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862855</v>
+        <v>157.790771535897</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862855</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W4" t="n">
-        <v>1406.107276723079</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1200.105427331815</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>743.9292024621484</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="C5" t="n">
-        <v>743.9292024621484</v>
+        <v>1668.976949988743</v>
       </c>
       <c r="D5" t="n">
-        <v>743.9292024621484</v>
+        <v>1233.067165163188</v>
       </c>
       <c r="E5" t="n">
-        <v>743.9292024621484</v>
+        <v>799.292420321483</v>
       </c>
       <c r="F5" t="n">
-        <v>743.9292024621484</v>
+        <v>371.4249907306907</v>
       </c>
       <c r="G5" t="n">
         <v>342.5313710854123</v>
@@ -4565,19 +4567,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4592,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2661.735117340042</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2402.512814657059</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2402.512814657059</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1997.657360068092</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="X5" t="n">
-        <v>1578.514896647403</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="Y5" t="n">
-        <v>1170.228772947056</v>
+        <v>2107.11942280532</v>
       </c>
     </row>
     <row r="6">
@@ -4647,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4699,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C7" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D7" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E7" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>77.9902918434814</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I7" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4750,25 +4752,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T7" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U7" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V7" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W7" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X7" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y7" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>648.8602641703436</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="C8" t="n">
-        <v>454.7990479053647</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="D8" t="n">
-        <v>454.7990479053647</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>454.7990479053647</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>454.7990479053647</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4805,25 +4807,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>1293.567921177998</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4841,13 +4843,13 @@
         <v>2307.443876365254</v>
       </c>
       <c r="W8" t="n">
-        <v>1902.588421776288</v>
+        <v>2032.018922011805</v>
       </c>
       <c r="X8" t="n">
-        <v>1483.445958355598</v>
+        <v>1612.876458591116</v>
       </c>
       <c r="Y8" t="n">
-        <v>1075.159834655251</v>
+        <v>1204.590334890769</v>
       </c>
     </row>
     <row r="9">
@@ -4893,13 +4895,13 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>762.8950539462408</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>590.3333424294657</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>424.4553496309884</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>254.6973458817257</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>77.99029184348186</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>53.40121652862856</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4972,7 +4974,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O10" t="n">
         <v>2154.361157596754</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.33055796836</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425082</v>
       </c>
       <c r="X10" t="n">
-        <v>1182.13334335112</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>954.7136726652279</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1318.576262321712</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="C11" t="n">
-        <v>1318.576262321712</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="D11" t="n">
-        <v>882.6664774961569</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="E11" t="n">
-        <v>882.6664774961569</v>
+        <v>1172.213421425801</v>
       </c>
       <c r="F11" t="n">
-        <v>454.7990479053647</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G11" t="n">
-        <v>53.40121652862856</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H11" t="n">
-        <v>53.40121652862856</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I11" t="n">
         <v>53.40121652862856</v>
@@ -5069,22 +5071,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="T11" t="n">
-        <v>2670.060826431428</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U11" t="n">
-        <v>2670.060826431428</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V11" t="n">
-        <v>2670.060826431428</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W11" t="n">
-        <v>2572.304419927656</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X11" t="n">
-        <v>2153.161956506967</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="Y11" t="n">
-        <v>1744.87583280662</v>
+        <v>1423.298891966343</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J12" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K12" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L12" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M12" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5173,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>903.8972536055599</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3355420887848</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D13" t="n">
-        <v>565.4575492903075</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E13" t="n">
-        <v>395.6995455410447</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F13" t="n">
-        <v>218.9924915028009</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G13" t="n">
         <v>53.40121652862856</v>
@@ -5224,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2651.821657388744</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T13" t="n">
-        <v>2405.942210967199</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U13" t="n">
-        <v>2127.509210220304</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V13" t="n">
-        <v>1840.553702090735</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W13" t="n">
-        <v>1568.527297677026</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X13" t="n">
-        <v>1323.135543010439</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y13" t="n">
-        <v>1095.715872324547</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1835.475132246173</v>
+        <v>1178.554482038442</v>
       </c>
       <c r="C14" t="n">
-        <v>1397.332659429597</v>
+        <v>1178.554482038442</v>
       </c>
       <c r="D14" t="n">
-        <v>961.4228746040412</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E14" t="n">
-        <v>527.6481297623363</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F14" t="n">
-        <v>99.78070017154408</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G14" t="n">
         <v>53.40121652862856</v>
@@ -5279,16 +5281,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L14" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M14" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N14" t="n">
-        <v>1293.567921177998</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O14" t="n">
         <v>1293.567921177998</v>
@@ -5309,19 +5311,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V14" t="n">
-        <v>2670.060826431428</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="W14" t="n">
-        <v>2670.060826431428</v>
+        <v>2005.983069159478</v>
       </c>
       <c r="X14" t="n">
-        <v>2670.060826431428</v>
+        <v>1586.840605738788</v>
       </c>
       <c r="Y14" t="n">
-        <v>2261.774702731081</v>
+        <v>1178.554482038442</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5360,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O15" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P15" t="n">
         <v>1058.729261281022</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C16" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D16" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E16" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F16" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H16" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I16" t="n">
         <v>53.40121652862856</v>
@@ -5467,19 +5469,19 @@
         <v>2424.181380009883</v>
       </c>
       <c r="U16" t="n">
-        <v>2356.071333755254</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V16" t="n">
-        <v>2069.115825625685</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W16" t="n">
-        <v>1797.089421211977</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X16" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y16" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1762.626050389202</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="C17" t="n">
-        <v>1324.483577572625</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="D17" t="n">
-        <v>888.5737927470695</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E17" t="n">
-        <v>454.7990479053647</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F17" t="n">
-        <v>454.7990479053647</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H17" t="n">
         <v>53.40121652862856</v>
@@ -5519,46 +5521,46 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M17" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N17" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O17" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P17" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q17" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S17" t="n">
-        <v>2608.068084294799</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T17" t="n">
-        <v>2608.068084294799</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U17" t="n">
-        <v>2608.068084294799</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V17" t="n">
-        <v>2608.068084294799</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>2608.068084294799</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="X17" t="n">
-        <v>2188.925620874109</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="Y17" t="n">
-        <v>2188.925620874109</v>
+        <v>1605.571376894645</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1132.45937714051</v>
+        <v>762.8950539462408</v>
       </c>
       <c r="C19" t="n">
-        <v>959.897665623735</v>
+        <v>590.3333424294657</v>
       </c>
       <c r="D19" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309884</v>
       </c>
       <c r="E19" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817257</v>
       </c>
       <c r="F19" t="n">
-        <v>447.554615037751</v>
+        <v>77.99029184348186</v>
       </c>
       <c r="G19" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H19" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I19" t="n">
         <v>53.40121652862856</v>
@@ -5698,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2670.060826431428</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T19" t="n">
-        <v>2424.181380009883</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U19" t="n">
-        <v>2356.071333755254</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V19" t="n">
-        <v>2069.115825625685</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W19" t="n">
-        <v>1797.089421211977</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X19" t="n">
-        <v>1551.697666545389</v>
+        <v>1182.13334335112</v>
       </c>
       <c r="Y19" t="n">
-        <v>1324.277995859497</v>
+        <v>954.7136726652279</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>931.3608944498332</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I20" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>687.540662806093</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>1348.380717347871</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P20" t="n">
-        <v>4440.279291740943</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I22" t="n">
-        <v>102.2608402707796</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J22" t="n">
-        <v>188.8405254354695</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K22" t="n">
-        <v>463.598980006605</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L22" t="n">
-        <v>881.8088617745661</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M22" t="n">
-        <v>1341.292728955479</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N22" t="n">
-        <v>1783.551532113124</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O22" t="n">
-        <v>2203.220781338905</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P22" t="n">
-        <v>2550.727675309247</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5971,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771593</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C24" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D24" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E24" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F24" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G24" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H24" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S24" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T24" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U24" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V24" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W24" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X24" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y24" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883914</v>
+        <v>3365.117609755798</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716164</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D25" t="n">
-        <v>473.3149733731391</v>
+        <v>3026.677905440545</v>
       </c>
       <c r="E25" t="n">
-        <v>407.7542895545774</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>2680.212847653039</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>2514.621572678866</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="T25" t="n">
-        <v>2313.799635050031</v>
+        <v>4867.162567117436</v>
       </c>
       <c r="U25" t="n">
-        <v>2035.366634303136</v>
+        <v>4588.729566370542</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173566</v>
+        <v>4301.774058240972</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>4029.747653827264</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.99296709327</v>
+        <v>3784.355899160676</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>3556.936228474785</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6233,43 +6235,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>560.572149076143</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>383.8650950378992</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>218.2738200637269</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6506,7 +6508,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C30" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D30" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E30" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F30" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K30" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L30" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M30" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N30" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O30" t="n">
-        <v>452.8828383974496</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R30" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S30" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T30" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U30" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V30" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W30" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X30" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y30" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>970.9960463903949</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>798.4343348736198</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>632.5563420751425</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>462.7983383258798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>286.091284287636</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>120.5000093134636</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1162.814665109382</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6710,40 +6712,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6941,46 +6943,46 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>1832.799255305531</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M35" t="n">
-        <v>2989.847090516082</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N35" t="n">
-        <v>4115.578073952529</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>4115.578073952529</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7184,19 +7186,19 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.659051657336</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C40" t="n">
-        <v>920.0973401405612</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D40" t="n">
-        <v>754.2193473420839</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E40" t="n">
-        <v>584.4613435928212</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F40" t="n">
-        <v>407.7542895545774</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G40" t="n">
-        <v>242.1630145804051</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S40" t="n">
-        <v>2718.920450173579</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T40" t="n">
-        <v>2594.704009018975</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U40" t="n">
-        <v>2316.271008272081</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V40" t="n">
-        <v>2029.315500142511</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.289095728803</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.897341062215</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.477670376323</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004245</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436408</v>
+        <v>102.6776296436399</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7418,43 +7420,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051464</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888106</v>
       </c>
       <c r="D42" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034659</v>
       </c>
       <c r="E42" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361613</v>
       </c>
       <c r="F42" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977775</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.537904243959</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060171</v>
       </c>
       <c r="I42" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220629</v>
       </c>
       <c r="J42" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186841</v>
       </c>
       <c r="K42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="L42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="M42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="N42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="O42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="P42" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812565</v>
       </c>
       <c r="Q42" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.86923544464</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987363</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317965</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317933</v>
       </c>
       <c r="V42" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379932</v>
       </c>
       <c r="W42" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113126</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352006</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131227</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
         <v>102.2608402707796</v>
@@ -7594,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>743.9292024621484</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>743.9292024621484</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>743.9292024621484</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>743.9292024621484</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>743.9292024621484</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>342.5313710854123</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>488.6559039815464</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1149.495958523325</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1149.495958523325</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1149.495958523325</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N44" t="n">
-        <v>1149.495958523325</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1293.567921177998</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>1954.407975719776</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2500.906761678371</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2670.060826431428</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2586.408952615265</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2366.341725488303</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2107.11942280532</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>1744.502472739146</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>1339.64701815018</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>1339.64701815018</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>931.3608944498332</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>559.5729615199214</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>453.1165003565636</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>358.0262115031169</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>263.9057968300706</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>180.5219584462322</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>95.13686871241609</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>79.46488968908616</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>404.0232146552985</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1058.729261281022</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1599.468199913098</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1716.640978007438</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1653.185540455821</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1523.006896786422</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1346.67034978639</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1147.55283184839</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>962.2300775815838</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>807.3626418204638</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>680.8768625996845</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>741.4772326516122</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>731.3355420887848</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>565.4575492903075</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>395.6995455410447</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>218.9924915028009</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>53.40121652862856</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>139.9809016933183</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>414.7393562644539</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>832.949238032415</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1292.433105213328</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1734.691908370972</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2154.361157596754</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2501.868051567096</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2670.060826431428</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2648.6430051368</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2489.401636434796</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.522190013251</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>1965.089189266357</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1678.133681136787</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1406.107276723079</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1160.715522056491</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>933.2958513705994</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,13 +8054,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434582</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8213,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8225,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8295,22 +8297,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8453,16 +8455,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8474,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8541,16 +8543,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8766,7 +8768,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8778,13 +8780,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,19 +8929,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L14" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>667.515206607857</v>
@@ -9006,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9167,7 +9169,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9179,13 +9181,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9482,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9881,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10191,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10358,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10589,22 +10591,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>465.5893289127835</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10832,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11066,7 +11068,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11297,22 +11299,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>145.5272350047205</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11452,7 +11454,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -22544,25 +22546,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>366.0516090388609</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>229.806285197805</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22615,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22713,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22722,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>35.15749310933346</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -22750,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22768,7 +22770,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>368.7791696141431</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22832,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.6241028552199</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -22844,13 +22846,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -22954,13 +22956,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>139.5921776627263</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22990,13 +22992,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>241.6404439860818</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23081,7 +23083,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>128.1361952331623</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -23191,13 +23193,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23242,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>229.4233680290254</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>182.9760711421631</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,22 +23311,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>304.0280576043429</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23428,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>170.6747068107571</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>351.4681642564824</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23549,16 +23551,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23729,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>21.44254036273846</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>263.265115157021</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23966,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>238.0313802270764</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.1553467313941</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24412,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>23.65030257151146</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24853,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>120.4463752142721</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25090,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,10 +25125,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25321,7 +25323,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25597,10 +25599,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T40" t="n">
-        <v>120.4463752142717</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25862,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>236.4791997122508</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25883,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25928,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>160.7958207444082</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>474326.0513182524</v>
+        <v>474326.0513182523</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474326.0513182523</v>
+        <v>474326.0513182522</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>474326.0513182522</v>
+        <v>474326.0513182523</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474326.0513182523</v>
+        <v>474326.0513182522</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474326.0513182523</v>
+        <v>474326.0513182522</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>738937.7856736744</v>
+        <v>474326.0513182523</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738937.7856736745</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>738937.7856736745</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>738937.7856736745</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738937.7856736745</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>474326.0513182523</v>
+        <v>738937.7856736744</v>
       </c>
     </row>
   </sheetData>
@@ -26317,19 +26319,19 @@
         <v>160640.833517505</v>
       </c>
       <c r="D2" t="n">
-        <v>160640.8335175049</v>
+        <v>160640.833517505</v>
       </c>
       <c r="E2" t="n">
         <v>160640.833517505</v>
       </c>
       <c r="F2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="G2" t="n">
         <v>160640.833517505</v>
       </c>
       <c r="H2" t="n">
-        <v>250257.3524652424</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="I2" t="n">
         <v>250257.3524652424</v>
@@ -26353,7 +26355,7 @@
         <v>250257.3524652424</v>
       </c>
       <c r="P2" t="n">
-        <v>160640.8335175049</v>
+        <v>250257.3524652424</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>164784.5777780755</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>162410.0000642069</v>
       </c>
       <c r="J3" t="n">
         <v>174651.3487177062</v>
@@ -26421,7 +26423,7 @@
         <v>43649.82185483626</v>
       </c>
       <c r="D4" t="n">
-        <v>43649.82185483625</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="E4" t="n">
         <v>43649.82185483626</v>
@@ -26433,31 +26435,31 @@
         <v>43649.82185483626</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>43649.82185483626</v>
       </c>
       <c r="I4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933282</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="M4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="N4" t="n">
+        <v>68000.69828933279</v>
+      </c>
+      <c r="O4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="M4" t="n">
-        <v>68000.69828933282</v>
-      </c>
-      <c r="N4" t="n">
-        <v>68000.69828933282</v>
-      </c>
-      <c r="O4" t="n">
-        <v>68000.69828933282</v>
-      </c>
       <c r="P4" t="n">
-        <v>43649.82185483625</v>
+        <v>68000.69828933281</v>
       </c>
     </row>
     <row r="5">
@@ -26485,31 +26487,31 @@
         <v>40584.9245617577</v>
       </c>
       <c r="H5" t="n">
-        <v>77718.23860579252</v>
+        <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>40584.9245617577</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26522,31 +26524,31 @@
         <v>-180921.2114831338</v>
       </c>
       <c r="C6" t="n">
-        <v>42778.48710091105</v>
+        <v>42778.48710091102</v>
       </c>
       <c r="D6" t="n">
-        <v>42778.48710091099</v>
+        <v>42778.48710091102</v>
       </c>
       <c r="E6" t="n">
         <v>76406.08710091101</v>
       </c>
       <c r="F6" t="n">
-        <v>76406.08710091104</v>
+        <v>76406.08710091098</v>
       </c>
       <c r="G6" t="n">
-        <v>76406.08710091104</v>
+        <v>76406.08710091101</v>
       </c>
       <c r="H6" t="n">
-        <v>-60246.16220795846</v>
+        <v>76406.08710091098</v>
       </c>
       <c r="I6" t="n">
-        <v>104538.415570117</v>
+        <v>-57871.58449408981</v>
       </c>
       <c r="J6" t="n">
-        <v>-70112.93314758909</v>
+        <v>-70112.93314758912</v>
       </c>
       <c r="K6" t="n">
-        <v>104538.415570117</v>
+        <v>104538.4155701171</v>
       </c>
       <c r="L6" t="n">
         <v>104538.4155701171</v>
@@ -26558,10 +26560,10 @@
         <v>104538.4155701171</v>
       </c>
       <c r="O6" t="n">
+        <v>104538.415570117</v>
+      </c>
+      <c r="P6" t="n">
         <v>104538.4155701171</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76406.08710091098</v>
       </c>
     </row>
   </sheetData>
@@ -26805,7 +26807,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="H4" t="n">
-        <v>1278.260503384745</v>
+        <v>667.515206607857</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26829,7 +26831,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>667.515206607857</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="J4" t="n">
         <v>667.5152066078571</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>610.7452967768884</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521125</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078571</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,13 +34774,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.13097499434582</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>667.5152066078572</v>
+        <v>661.3192390158822</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34854,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34933,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34945,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35015,22 +35017,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35173,16 +35175,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>316.389926674475</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L8" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35194,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35261,16 +35263,16 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35486,7 +35488,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35498,13 +35500,13 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35647,19 +35649,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L14" t="n">
-        <v>145.5272350047205</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>667.515206607857</v>
@@ -35726,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35887,7 +35889,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5272350047205</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -35899,13 +35901,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>667.515206607857</v>
+        <v>316.389926674475</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>200.8936957823703</v>
       </c>
       <c r="L20" t="n">
-        <v>1085.919157831171</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>508.6956131767483</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K22" t="n">
         <v>277.5337924960966</v>
@@ -36285,13 +36287,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
@@ -36431,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632091</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J24" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36452,10 +36454,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
         <v>118.3563415094341</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36601,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36926,10 +36928,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36987,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37078,7 +37080,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37142,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37224,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37309,22 +37311,22 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>465.5893289127835</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37552,7 +37554,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132081</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38017,28 +38019,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>667.515206607857</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>145.5272350047205</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>667.515206607857</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>248198.4017617423</v>
+        <v>245400.5554007794</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3650026.315129926</v>
+        <v>3650026.315129927</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>57.53714625602347</v>
+        <v>54.55340531488891</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -834,10 +834,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>103.3456594571958</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -879,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>20.73696989209217</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>299.6395049670046</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>429.4369973932878</v>
@@ -910,10 +910,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>28.60468344882564</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>186.753566802373</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -1068,7 +1068,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170431</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>100.6030807914274</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>272.6707048099148</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1308,10 +1308,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225712</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>13.51446909089625</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1372,25 +1372,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>248.5746158351368</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>53.00122480006277</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>18.05677735225757</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>260.8759801665428</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>264.8725316566255</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1782,7 +1782,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>18.05677735225757</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>17.70650896864606</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>137.541784886056</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>24.34318456170476</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>185.5573750678079</v>
+        <v>4.692198282221012</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,19 +2134,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2244,7 +2244,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>94.50264048967814</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2572,7 +2572,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H26" t="n">
-        <v>286.2388530112162</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I26" t="n">
         <v>0.4126214791313976</v>
@@ -2608,7 +2608,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T26" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U26" t="n">
         <v>256.6300796561533</v>
@@ -2857,7 +2857,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3049,7 +3049,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I32" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T32" t="n">
         <v>217.8665548556918</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3319,7 +3319,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3441,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3760,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791316623</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361635</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3979,7 +3979,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1419.763337936864</v>
+        <v>1416.332668825485</v>
       </c>
       <c r="C2" t="n">
-        <v>981.6208651202878</v>
+        <v>978.1901960089081</v>
       </c>
       <c r="D2" t="n">
-        <v>545.7110802947323</v>
+        <v>542.2804111833525</v>
       </c>
       <c r="E2" t="n">
-        <v>111.9363354530274</v>
+        <v>108.5056663416477</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862857</v>
@@ -4336,22 +4336,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4369,13 +4369,13 @@
         <v>2670.060826431428</v>
       </c>
       <c r="W2" t="n">
-        <v>2265.205371842461</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="X2" t="n">
-        <v>1846.062908421772</v>
+        <v>2250.918363010739</v>
       </c>
       <c r="Y2" t="n">
-        <v>1846.062908421772</v>
+        <v>1842.632239310392</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780555</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927108</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254062</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.82106495262</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>1357.443063079289</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.972680272381</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005575</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244455</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1008.286808612828</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C4" t="n">
-        <v>835.7250970960532</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D4" t="n">
-        <v>669.8471042975759</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E4" t="n">
-        <v>500.0891005483132</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F4" t="n">
-        <v>323.3820465100694</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G4" t="n">
-        <v>157.790771535897</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862855</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1657.187246902351</v>
       </c>
       <c r="X4" t="n">
-        <v>1427.525098017707</v>
+        <v>1411.795492235764</v>
       </c>
       <c r="Y4" t="n">
-        <v>1200.105427331815</v>
+        <v>1184.375821549872</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.11942280532</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="C5" t="n">
-        <v>1668.976949988743</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="D5" t="n">
-        <v>1233.067165163188</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E5" t="n">
-        <v>799.292420321483</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F5" t="n">
-        <v>371.4249907306907</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
         <v>53.40121652862856</v>
@@ -4570,16 +4570,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M5" t="n">
-        <v>1149.495958523325</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N5" t="n">
-        <v>1149.495958523325</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2107.11942280532</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2107.11942280532</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>2107.11942280532</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.11942280532</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.11942280532</v>
+        <v>1217.709557594464</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>762.8950539462403</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C7" t="n">
-        <v>590.3333424294652</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D7" t="n">
-        <v>424.4553496309879</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E7" t="n">
-        <v>254.6973458817252</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F7" t="n">
-        <v>77.9902918434814</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G7" t="n">
         <v>53.40121652862856</v>
@@ -4725,19 +4725,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933183</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>414.7393562644539</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>832.949238032415</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
         <v>2154.361157596754</v>
@@ -4749,28 +4749,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2510.819457729424</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2264.94001130788</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>1986.507010560985</v>
+        <v>2124.330557968361</v>
       </c>
       <c r="V7" t="n">
-        <v>1699.551502431415</v>
+        <v>1837.375049838791</v>
       </c>
       <c r="W7" t="n">
-        <v>1427.525098017707</v>
+        <v>1565.348645425083</v>
       </c>
       <c r="X7" t="n">
-        <v>1182.133343351119</v>
+        <v>1319.956890758495</v>
       </c>
       <c r="Y7" t="n">
-        <v>954.7136726652275</v>
+        <v>1092.537220072603</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1204.590334890769</v>
+        <v>1318.202902254239</v>
       </c>
       <c r="C8" t="n">
-        <v>1204.590334890769</v>
+        <v>880.0604294376622</v>
       </c>
       <c r="D8" t="n">
-        <v>1204.590334890769</v>
+        <v>444.1506446121066</v>
       </c>
       <c r="E8" t="n">
-        <v>770.8155900490646</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4807,49 +4807,49 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M8" t="n">
-        <v>801.8819313892766</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O8" t="n">
-        <v>1462.721985931055</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2307.443876365254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2032.018922011805</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="X8" t="n">
-        <v>1612.876458591116</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="Y8" t="n">
-        <v>1204.590334890769</v>
+        <v>1744.502472739146</v>
       </c>
     </row>
     <row r="9">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D10" t="n">
-        <v>794.0196728252577</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E10" t="n">
-        <v>624.2616690759949</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F10" t="n">
-        <v>447.554615037751</v>
+        <v>237.2316605454849</v>
       </c>
       <c r="G10" t="n">
-        <v>281.9633400635787</v>
+        <v>71.64038557131252</v>
       </c>
       <c r="H10" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2402.763558715255</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U10" t="n">
-        <v>2124.33055796836</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V10" t="n">
-        <v>1837.375049838791</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W10" t="n">
-        <v>1565.348645425082</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1423.298891966343</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C11" t="n">
-        <v>1423.298891966343</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D11" t="n">
-        <v>1172.213421425801</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E11" t="n">
-        <v>1172.213421425801</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F11" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G11" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H11" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I11" t="n">
         <v>53.40121652862856</v>
@@ -5068,25 +5068,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S11" t="n">
-        <v>2670.060826431428</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="T11" t="n">
-        <v>2449.993599304466</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="U11" t="n">
-        <v>2190.771296621483</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="V11" t="n">
-        <v>1828.15434655531</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="W11" t="n">
-        <v>1423.298891966343</v>
+        <v>2616.524235724294</v>
       </c>
       <c r="X11" t="n">
-        <v>1423.298891966343</v>
+        <v>2197.381772303605</v>
       </c>
       <c r="Y11" t="n">
-        <v>1423.298891966343</v>
+        <v>1789.095648603258</v>
       </c>
     </row>
     <row r="12">
@@ -5135,7 +5135,7 @@
         <v>404.0232146552985</v>
       </c>
       <c r="O12" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P12" t="n">
         <v>1058.729261281022</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.8950539462408</v>
+        <v>922.1364226482442</v>
       </c>
       <c r="C13" t="n">
-        <v>590.3333424294657</v>
+        <v>749.5747111314691</v>
       </c>
       <c r="D13" t="n">
-        <v>424.4553496309884</v>
+        <v>583.6967183329918</v>
       </c>
       <c r="E13" t="n">
-        <v>254.6973458817257</v>
+        <v>413.9387145837291</v>
       </c>
       <c r="F13" t="n">
-        <v>77.99029184348186</v>
+        <v>237.2316605454853</v>
       </c>
       <c r="G13" t="n">
-        <v>53.40121652862856</v>
+        <v>71.64038557131298</v>
       </c>
       <c r="H13" t="n">
         <v>53.40121652862856</v>
@@ -5226,25 +5226,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S13" t="n">
-        <v>2510.819457729425</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.94001130788</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U13" t="n">
-        <v>1986.507010560985</v>
+        <v>2145.748379262989</v>
       </c>
       <c r="V13" t="n">
-        <v>1699.551502431416</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W13" t="n">
-        <v>1427.525098017707</v>
+        <v>1586.766466719711</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.13334335112</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y13" t="n">
-        <v>954.7136726652279</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1178.554482038442</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="C14" t="n">
-        <v>1178.554482038442</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="D14" t="n">
-        <v>915.0433909611256</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="E14" t="n">
-        <v>481.2686461194208</v>
+        <v>1011.477214236518</v>
       </c>
       <c r="F14" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G14" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H14" t="n">
         <v>53.40121652862856</v>
@@ -5281,19 +5281,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K14" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L14" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M14" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="N14" t="n">
-        <v>632.7278666362198</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="O14" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P14" t="n">
         <v>1954.407975719776</v>
@@ -5311,19 +5311,19 @@
         <v>2670.060826431428</v>
       </c>
       <c r="U14" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V14" t="n">
-        <v>2410.838523748444</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W14" t="n">
-        <v>2005.983069159478</v>
+        <v>2265.205371842461</v>
       </c>
       <c r="X14" t="n">
-        <v>1586.840605738788</v>
+        <v>1846.062908421772</v>
       </c>
       <c r="Y14" t="n">
-        <v>1178.554482038442</v>
+        <v>1437.776784721425</v>
       </c>
     </row>
     <row r="15">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>922.1364226482442</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C16" t="n">
-        <v>749.5747111314691</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D16" t="n">
-        <v>583.6967183329918</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E16" t="n">
-        <v>413.9387145837291</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F16" t="n">
-        <v>237.2316605454853</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G16" t="n">
-        <v>71.64038557131298</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H16" t="n">
         <v>53.40121652862856</v>
@@ -5463,25 +5463,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S16" t="n">
-        <v>2670.060826431428</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T16" t="n">
-        <v>2424.181380009883</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U16" t="n">
-        <v>2145.748379262989</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V16" t="n">
-        <v>1858.792871133419</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W16" t="n">
-        <v>1586.766466719711</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X16" t="n">
-        <v>1341.374712053123</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.955041367231</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1605.571376894645</v>
+        <v>505.0613239649254</v>
       </c>
       <c r="C17" t="n">
-        <v>1605.571376894645</v>
+        <v>505.0613239649254</v>
       </c>
       <c r="D17" t="n">
-        <v>1605.571376894645</v>
+        <v>487.1759613703334</v>
       </c>
       <c r="E17" t="n">
-        <v>1171.796632052941</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="F17" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G17" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H17" t="n">
         <v>53.40121652862856</v>
@@ -5521,22 +5521,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L17" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M17" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N17" t="n">
-        <v>1810.336013065103</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O17" t="n">
-        <v>1810.336013065103</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P17" t="n">
-        <v>2123.562040472833</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q17" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R17" t="n">
         <v>2670.060826431428</v>
@@ -5554,13 +5554,13 @@
         <v>1744.502472739146</v>
       </c>
       <c r="W17" t="n">
-        <v>1605.571376894645</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X17" t="n">
-        <v>1605.571376894645</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="Y17" t="n">
-        <v>1605.571376894645</v>
+        <v>931.3608944498332</v>
       </c>
     </row>
     <row r="18">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.8950539462408</v>
+        <v>903.8972536055599</v>
       </c>
       <c r="C19" t="n">
-        <v>590.3333424294657</v>
+        <v>731.3355420887848</v>
       </c>
       <c r="D19" t="n">
-        <v>424.4553496309884</v>
+        <v>565.4575492903075</v>
       </c>
       <c r="E19" t="n">
-        <v>254.6973458817257</v>
+        <v>395.6995455410447</v>
       </c>
       <c r="F19" t="n">
-        <v>77.99029184348186</v>
+        <v>218.9924915028009</v>
       </c>
       <c r="G19" t="n">
         <v>53.40121652862856</v>
@@ -5700,25 +5700,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S19" t="n">
-        <v>2510.819457729425</v>
+        <v>2651.821657388744</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.94001130788</v>
+        <v>2405.942210967199</v>
       </c>
       <c r="U19" t="n">
-        <v>1986.507010560985</v>
+        <v>2127.509210220304</v>
       </c>
       <c r="V19" t="n">
-        <v>1699.551502431416</v>
+        <v>1840.553702090735</v>
       </c>
       <c r="W19" t="n">
-        <v>1427.525098017707</v>
+        <v>1568.527297677026</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.13334335112</v>
+        <v>1323.135543010439</v>
       </c>
       <c r="Y19" t="n">
-        <v>954.7136726652279</v>
+        <v>1095.715872324547</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>931.3608944498332</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C20" t="n">
-        <v>931.3608944498332</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="D20" t="n">
-        <v>931.3608944498332</v>
+        <v>491.9155555947991</v>
       </c>
       <c r="E20" t="n">
-        <v>931.3608944498332</v>
+        <v>58.14081075309423</v>
       </c>
       <c r="F20" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G20" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H20" t="n">
         <v>53.40121652862856</v>
@@ -5755,25 +5755,25 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K20" t="n">
-        <v>687.540662806093</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L20" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M20" t="n">
-        <v>1348.380717347871</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N20" t="n">
-        <v>1348.380717347871</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O20" t="n">
-        <v>2009.22077188965</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P20" t="n">
-        <v>2670.060826431428</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q20" t="n">
-        <v>2670.060826431428</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R20" t="n">
         <v>2670.060826431428</v>
@@ -5782,22 +5782,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T20" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U20" t="n">
-        <v>2107.11942280532</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V20" t="n">
-        <v>1744.502472739146</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W20" t="n">
-        <v>1339.64701815018</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X20" t="n">
-        <v>1339.64701815018</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y20" t="n">
-        <v>931.3608944498332</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="21">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>903.8972536055599</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C22" t="n">
-        <v>731.3355420887848</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D22" t="n">
-        <v>565.4575492903075</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E22" t="n">
-        <v>395.6995455410447</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F22" t="n">
-        <v>218.9924915028009</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I22" t="n">
         <v>53.40121652862856</v>
@@ -5937,25 +5937,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S22" t="n">
-        <v>2651.821657388744</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T22" t="n">
-        <v>2405.942210967199</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U22" t="n">
-        <v>2127.509210220304</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V22" t="n">
-        <v>1840.553702090735</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W22" t="n">
-        <v>1568.527297677026</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X22" t="n">
-        <v>1323.135543010439</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y22" t="n">
-        <v>1095.715872324547</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="23">
@@ -5971,19 +5971,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5998,7 +5998,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3365.117609755798</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3192.555898239023</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3026.677905440545</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2856.919901691283</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2680.212847653039</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2514.621572678866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>5113.04201353898</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4867.162567117436</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4588.729566370542</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4301.774058240972</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4029.747653827264</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3784.355899160676</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3556.936228474785</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
         <v>102.6776296436396</v>
@@ -6235,25 +6235,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
         <v>4809.322912595856</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6454,7 +6454,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
         <v>102.6776296436396</v>
@@ -6475,31 +6475,31 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U29" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V29" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W29" t="n">
         <v>3782.628205257733</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C30" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D30" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E30" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F30" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H30" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S30" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T30" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U30" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V30" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W30" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X30" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y30" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="31">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C32" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D32" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E32" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6712,40 +6712,40 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P32" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R32" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S32" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T32" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U32" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V32" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W32" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X32" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y32" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="33">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6925,40 +6925,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>1371.865819681875</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>1463.16863798718</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -6976,13 +6976,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H37" t="n">
         <v>102.2608402707796</v>
@@ -7122,25 +7122,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7183,25 +7183,25 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
         <v>4809.322912595856</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3346.878440713112</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3174.316729196337</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>3008.43873639786</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>2838.680732648597</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636181</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636181</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5094.802844496296</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4848.923398074751</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4570.490397327857</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4283.534889198288</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>4011.508484784579</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3766.116730117991</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3538.6970594321</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436399</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
         <v>102.2608402707796</v>
@@ -7420,28 +7420,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7450,13 +7450,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3955.973997051464</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>3849.517535888106</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>3754.427247034659</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>3660.306832361613</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>3576.922993977775</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>3491.537904243959</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>3449.802252060171</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>3475.865925220629</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>3800.424250186841</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>4455.130296812565</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>4995.86923544464</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>5113.04201353898</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>5049.586575987363</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>4919.407932317965</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>4743.071385317933</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>4543.953867379932</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>4358.631113113126</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>4203.763677352006</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>4077.277898131227</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7596,25 +7596,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7657,7 +7657,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423627</v>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8218,19 +8218,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8455,16 +8455,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>316.389926674475</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8619,7 +8619,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645585</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8929,22 +8929,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L14" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9169,25 +9169,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9403,28 +9403,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>200.8936957823703</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9646,10 +9646,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9883,10 +9883,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -10123,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10360,10 +10360,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10585,16 +10585,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10603,13 +10603,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10831,10 +10831,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11068,7 +11068,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11305,10 +11305,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -22558,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>366.0516090388609</v>
+        <v>369.0353499799954</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -22567,7 +22567,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22609,13 +22609,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22722,10 +22722,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>35.15749310933346</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,7 +22752,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22767,10 +22767,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>248.5691704774792</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>122.3970698130541</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -22798,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>368.7791696141431</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>3.146865729424235</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -22956,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627263</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>328.8339166018603</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>128.1361952331623</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -23196,10 +23196,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -23244,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>229.4233680290254</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23260,25 +23260,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>182.9760711421631</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>29.8141302779386</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142717</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>170.6747068107571</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>158.7162236382588</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -23551,7 +23551,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>120.4463752142717</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -23703,7 +23703,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>413.8441780086538</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -23794,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>263.265115157021</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23940,7 +23940,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>238.0313802270764</v>
+        <v>418.8965570126633</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -24022,19 +24022,19 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>69.71657238081438</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>120.4463752142708</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,7 +24414,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -25362,7 +25362,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>69.71657238081424</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>69.71657238081426</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>474326.0513182522</v>
+        <v>474326.0513182523</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474326.0513182522</v>
+        <v>474326.0513182523</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>474326.0513182522</v>
+        <v>474326.0513182523</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>738937.7856736744</v>
+        <v>738937.7856736745</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>738937.7856736744</v>
+        <v>738937.7856736745</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>738937.7856736744</v>
+        <v>738937.7856736745</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>738937.7856736744</v>
+        <v>738937.7856736745</v>
       </c>
     </row>
     <row r="16">
@@ -26316,7 +26316,7 @@
         <v>160640.833517505</v>
       </c>
       <c r="C2" t="n">
-        <v>160640.833517505</v>
+        <v>160640.8335175049</v>
       </c>
       <c r="D2" t="n">
         <v>160640.833517505</v>
@@ -26325,13 +26325,13 @@
         <v>160640.833517505</v>
       </c>
       <c r="F2" t="n">
+        <v>160640.833517505</v>
+      </c>
+      <c r="G2" t="n">
         <v>160640.8335175049</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>160640.833517505</v>
-      </c>
-      <c r="H2" t="n">
-        <v>160640.8335175049</v>
       </c>
       <c r="I2" t="n">
         <v>250257.3524652424</v>
@@ -26420,10 +26420,10 @@
         <v>43649.82185483626</v>
       </c>
       <c r="C4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="D4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="E4" t="n">
         <v>43649.82185483626</v>
@@ -26435,28 +26435,28 @@
         <v>43649.82185483626</v>
       </c>
       <c r="H4" t="n">
-        <v>43649.82185483626</v>
+        <v>43649.82185483625</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="K4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="L4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="K4" t="n">
-        <v>68000.69828933279</v>
-      </c>
-      <c r="L4" t="n">
-        <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="P4" t="n">
         <v>68000.69828933281</v>
@@ -26490,28 +26490,28 @@
         <v>40584.9245617577</v>
       </c>
       <c r="I5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="J5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="L5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-180921.2114831338</v>
+        <v>-181416.1017117151</v>
       </c>
       <c r="C6" t="n">
-        <v>42778.48710091102</v>
+        <v>42283.59687232973</v>
       </c>
       <c r="D6" t="n">
-        <v>42778.48710091102</v>
+        <v>42283.59687232976</v>
       </c>
       <c r="E6" t="n">
-        <v>76406.08710091101</v>
+        <v>75911.19687232976</v>
       </c>
       <c r="F6" t="n">
-        <v>76406.08710091098</v>
+        <v>75911.19687232976</v>
       </c>
       <c r="G6" t="n">
-        <v>76406.08710091101</v>
+        <v>75911.19687232972</v>
       </c>
       <c r="H6" t="n">
-        <v>76406.08710091098</v>
+        <v>75911.19687232976</v>
       </c>
       <c r="I6" t="n">
-        <v>-57871.58449408981</v>
+        <v>-57894.80883347254</v>
       </c>
       <c r="J6" t="n">
-        <v>-70112.93314758912</v>
+        <v>-70136.15748697176</v>
       </c>
       <c r="K6" t="n">
-        <v>104538.4155701171</v>
+        <v>104515.1912307344</v>
       </c>
       <c r="L6" t="n">
-        <v>104538.4155701171</v>
+        <v>104515.1912307344</v>
       </c>
       <c r="M6" t="n">
-        <v>104538.4155701171</v>
+        <v>104515.1912307344</v>
       </c>
       <c r="N6" t="n">
-        <v>104538.4155701171</v>
+        <v>104515.1912307344</v>
       </c>
       <c r="O6" t="n">
-        <v>104538.415570117</v>
+        <v>104515.1912307344</v>
       </c>
       <c r="P6" t="n">
-        <v>104538.4155701171</v>
+        <v>104515.1912307344</v>
       </c>
     </row>
   </sheetData>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="J4" t="n">
         <v>667.5152066078571</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>200.8936957823703</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.5152066078572</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="P2" t="n">
         <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34801,7 +34801,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
-        <v>118.3563415094345</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34938,19 +34938,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,7 +35032,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35175,16 +35175,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>316.389926674475</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35196,7 +35196,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35649,22 +35649,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L14" t="n">
         <v>145.5272350047205</v>
       </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35889,25 +35889,25 @@
         <v>667.515206607857</v>
       </c>
       <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>145.5272350047205</v>
+      </c>
+      <c r="P17" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>316.389926674475</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>200.8936957823703</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O20" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36366,10 +36366,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
         <v>327.836691885063</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,10 +36603,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
@@ -36843,7 +36843,7 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36931,7 +36931,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>118.3563415094341</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
@@ -37080,10 +37080,10 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1133.488385918383</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>327.836691885063</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
         <v>277.5337924960966</v>
@@ -37305,16 +37305,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>92.22506899525706</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37323,13 +37323,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37551,10 +37551,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>143.4079146352447</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
         <v>661.3192390158824</v>
@@ -37879,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>546.2009481132081</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38025,10 +38025,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
